--- a/charts.xlsx
+++ b/charts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neal\Desktop\GroupC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCFA816-4E84-477F-AF7E-F9A64FCA5216}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EBB6F0-DCED-4494-B914-1EE73632BF21}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9B31D286-B249-4856-AC8C-42ACBBB5A474}"/>
   </bookViews>
@@ -2004,6 +2004,788 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Crimes by Season</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet7!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet7!$G$2:$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Winter</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Summer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet7!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>55061</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72071</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5065-4D56-A016-CD32615AA0A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="666426872"/>
+        <c:axId val="666426216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="666426872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666426216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="666426216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666426872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Crime by Season </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet7!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-41F5-4C19-8F5A-84A4EC238AFD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-41F5-4C19-8F5A-84A4EC238AFD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-41F5-4C19-8F5A-84A4EC238AFD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-41F5-4C19-8F5A-84A4EC238AFD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet7!$B$17:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Winter</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Summer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet7!$C$17:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.21261618185960482</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24677471048658334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27829971927141861</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26230938838239326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-41F5-4C19-8F5A-84A4EC238AFD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2164,6 +2946,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3690,6 +4552,1028 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4362,6 +6246,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF2A297-D4EB-4E5B-93E8-774E37AB1E75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316991E0-352C-4FC3-A36E-32F85BB78209}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4372,6 +6332,7 @@
       <sheetName val="Sheet1"/>
       <sheetName val="Sheet6"/>
       <sheetName val="Sheet4"/>
+      <sheetName val="Sheet7"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -4659,6 +6620,82 @@
           </cell>
           <cell r="G24">
             <v>0.13897416293069828</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="H1" t="str">
+            <v>Count</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="G2" t="str">
+            <v>Winter</v>
+          </cell>
+          <cell r="H2">
+            <v>55061</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="G3" t="str">
+            <v>Spring</v>
+          </cell>
+          <cell r="H3">
+            <v>63907</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4" t="str">
+            <v>Summer</v>
+          </cell>
+          <cell r="H4">
+            <v>72071</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5" t="str">
+            <v>Fall</v>
+          </cell>
+          <cell r="H5">
+            <v>67930</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>%</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>Winter</v>
+          </cell>
+          <cell r="C17">
+            <v>0.21261618185960482</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>Spring</v>
+          </cell>
+          <cell r="C18">
+            <v>0.24677471048658334</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>Summer</v>
+          </cell>
+          <cell r="C19">
+            <v>0.27829971927141861</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>Fall</v>
+          </cell>
+          <cell r="C20">
+            <v>0.26230938838239326</v>
           </cell>
         </row>
       </sheetData>
@@ -4966,8 +7003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A741AFA-65C7-47ED-807E-17D5FD606870}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neal\Desktop\GroupC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EBB6F0-DCED-4494-B914-1EE73632BF21}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B77B461-86E4-4389-B747-FBAC3DA70E82}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9B31D286-B249-4856-AC8C-42ACBBB5A474}"/>
   </bookViews>
@@ -17,6 +17,8 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -64,8 +66,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{79128374-7FD5-46C3-8D28-B462C09B123C}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -444,7 +474,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -479,11 +509,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Crime</a:t>
+              <a:t>Crimes by Moon</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> by Month</a:t>
+              <a:t> Phase</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -559,17 +589,7 @@
       </c:spPr>
     </c:backWall>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10694444444444444"/>
-          <c:y val="0.22004447360746568"/>
-          <c:w val="0.81388888888888888"/>
-          <c:h val="0.57479476523767858"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:pie3DChart>
         <c:varyColors val="1"/>
         <c:ser>
@@ -577,7 +597,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet4!$I$1</c:f>
+              <c:f>[3]Sheet5!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -607,7 +627,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-40E9-4E12-9998-5E76FDEA5D54}"/>
+                <c16:uniqueId val="{00000001-8057-445D-8408-9C8ACF34167C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -632,7 +652,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-40E9-4E12-9998-5E76FDEA5D54}"/>
+                <c16:uniqueId val="{00000003-8057-445D-8408-9C8ACF34167C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -657,7 +677,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-40E9-4E12-9998-5E76FDEA5D54}"/>
+                <c16:uniqueId val="{00000005-8057-445D-8408-9C8ACF34167C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -682,219 +702,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-40E9-4E12-9998-5E76FDEA5D54}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-40E9-4E12-9998-5E76FDEA5D54}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-40E9-4E12-9998-5E76FDEA5D54}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-40E9-4E12-9998-5E76FDEA5D54}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-40E9-4E12-9998-5E76FDEA5D54}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-40E9-4E12-9998-5E76FDEA5D54}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-40E9-4E12-9998-5E76FDEA5D54}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-40E9-4E12-9998-5E76FDEA5D54}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-40E9-4E12-9998-5E76FDEA5D54}"/>
+                <c16:uniqueId val="{00000007-8057-445D-8408-9C8ACF34167C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -930,10 +738,10 @@
             </c:txPr>
             <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -956,96 +764,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet4!$H$2:$H$13</c:f>
+              <c:f>[3]Sheet5!$A$8:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Jan</c:v>
+                  <c:v>First Quarter </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Oct</c:v>
+                  <c:v>Full Moon </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Nov</c:v>
+                  <c:v>Last Quarter </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Dec</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Feb</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Mar</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>April</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>May</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>June</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>July</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Aug</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sept</c:v>
+                  <c:v>New Moon </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet4!$I$2:$I$13</c:f>
+              <c:f>[3]Sheet5!$B$8:$B$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.6534256996011102E-2</c:v>
+                  <c:v>0.24965413009358833</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8694013569191682E-2</c:v>
+                  <c:v>0.25008816291732061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.2658542142109673E-2</c:v>
+                  <c:v>0.24724369780464647</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8461128552066078E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.7620796311527632E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.6406828616552555E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.2986766755866526E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.7381115114164243E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.9377493059014781E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.4609779548903539E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.4312446663500263E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.0956832671091906E-2</c:v>
+                  <c:v>0.25301400918444455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-40E9-4E12-9998-5E76FDEA5D54}"/>
+              <c16:uniqueId val="{00000008-8057-445D-8408-9C8ACF34167C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1143,7 +903,681 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Crimes by Moon Phase</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[3]Sheet5!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[3]Sheet5!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>First Quarter </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Full Moon </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Last Quarter </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Moon </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[3]Sheet5!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>64422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6484-4EC1-94F3-7C2D24C0ACC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="579907984"/>
+        <c:axId val="579908968"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="579907984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579908968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="579908968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579907984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Crimes by Moon Phase</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[3]Sheet5!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[3]Sheet5!$O$3:$O$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>First Quarter </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>New Moon </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Full Moon </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Last Quarter </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[3]Sheet5!$P$3:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>64422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64534</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7215-4C6E-91C6-4790BF3410CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="809986984"/>
+        <c:axId val="809981408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="809986984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="809981408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="809981408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="809986984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1480,531 +1914,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Crime</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> by Day of Week</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:rotY val="0"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Sheet4!$G$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>%</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-DF8F-472B-A5E8-3E80A7A61111}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-DF8F-472B-A5E8-3E80A7A61111}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-DF8F-472B-A5E8-3E80A7A61111}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-DF8F-472B-A5E8-3E80A7A61111}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-DF8F-472B-A5E8-3E80A7A61111}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-DF8F-472B-A5E8-3E80A7A61111}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="25400">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="25400">
-                <a:contourClr>
-                  <a:schemeClr val="lt1"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-DF8F-472B-A5E8-3E80A7A61111}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="bestFit"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Sheet4!$F$18:$F$24</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Friday </c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Monday </c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Saturday </c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Sunday </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thursday </c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Tuesday </c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Wednesday </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Sheet4!$G$18:$G$24</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.1537713008120663</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14319860678305124</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.149851912777205</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13905911518367065</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13670748236275385</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13843741915055469</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.13897416293069828</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-DF8F-472B-A5E8-3E80A7A61111}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="bestFit"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-      </c:pie3DChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2362,7 +2272,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2480,7 +2390,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet7!$C$16</c:f>
+              <c:f>[2]Sheet7!$C$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2510,7 +2420,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-41F5-4C19-8F5A-84A4EC238AFD}"/>
+                <c16:uniqueId val="{00000001-28BB-41D0-9C00-28ED5DFD6176}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2535,7 +2445,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-41F5-4C19-8F5A-84A4EC238AFD}"/>
+                <c16:uniqueId val="{00000003-28BB-41D0-9C00-28ED5DFD6176}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2560,7 +2470,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-41F5-4C19-8F5A-84A4EC238AFD}"/>
+                <c16:uniqueId val="{00000005-28BB-41D0-9C00-28ED5DFD6176}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2585,7 +2495,708 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-41F5-4C19-8F5A-84A4EC238AFD}"/>
+                <c16:uniqueId val="{00000007-28BB-41D0-9C00-28ED5DFD6176}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-28BB-41D0-9C00-28ED5DFD6176}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="1"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-28BB-41D0-9C00-28ED5DFD6176}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-28BB-41D0-9C00-28ED5DFD6176}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-28BB-41D0-9C00-28ED5DFD6176}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Sheet7!$B$17:$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Winter</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Summer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Sheet7!$C$17:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.21261618185960482</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24677471048658334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27829971927141861</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26230938838239326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-28BB-41D0-9C00-28ED5DFD6176}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Crime</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by Month</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10694444444444444"/>
+          <c:y val="0.22004447360746568"/>
+          <c:w val="0.81388888888888888"/>
+          <c:h val="0.57479476523767858"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]Sheet4!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-560C-47AA-8EE0-F40CF1BB31D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-560C-47AA-8EE0-F40CF1BB31D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-560C-47AA-8EE0-F40CF1BB31D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-560C-47AA-8EE0-F40CF1BB31D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-560C-47AA-8EE0-F40CF1BB31D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-560C-47AA-8EE0-F40CF1BB31D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-560C-47AA-8EE0-F40CF1BB31D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-560C-47AA-8EE0-F40CF1BB31D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-560C-47AA-8EE0-F40CF1BB31D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-560C-47AA-8EE0-F40CF1BB31D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-560C-47AA-8EE0-F40CF1BB31D4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-560C-47AA-8EE0-F40CF1BB31D4}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2619,12 +3230,12 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="bestFit"/>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -2647,48 +3258,96 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Sheet7!$B$17:$B$20</c:f>
+              <c:f>[2]Sheet4!$H$2:$H$13</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Winter</c:v>
+                  <c:v>Jan</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Spring</c:v>
+                  <c:v>Oct</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Summer</c:v>
+                  <c:v>Nov</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Fall</c:v>
+                  <c:v>Dec</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sept</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Sheet7!$C$17:$C$20</c:f>
+              <c:f>[2]Sheet4!$I$2:$I$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.21261618185960482</c:v>
+                  <c:v>7.6534256996011102E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24677471048658334</c:v>
+                  <c:v>8.8694013569191682E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27829971927141861</c:v>
+                  <c:v>8.2658542142109673E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26230938838239326</c:v>
+                  <c:v>7.8461128552066078E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7620796311527632E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6406828616552555E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.2986766755866526E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7381115114164243E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9377493059014781E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.4609779548903539E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4312446663500263E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0956832671091906E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-41F5-4C19-8F5A-84A4EC238AFD}"/>
+              <c16:uniqueId val="{00000018-560C-47AA-8EE0-F40CF1BB31D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2786,7 +3445,1769 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Crime</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by Day of Week</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]Sheet4!$G$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F296-4413-BC33-3F646A9F844B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F296-4413-BC33-3F646A9F844B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F296-4413-BC33-3F646A9F844B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F296-4413-BC33-3F646A9F844B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-F296-4413-BC33-3F646A9F844B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-F296-4413-BC33-3F646A9F844B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-F296-4413-BC33-3F646A9F844B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Sheet4!$F$18:$F$24</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Friday </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Monday </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Saturday </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sunday </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thursday </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tuesday </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Wednesday </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Sheet4!$G$18:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.1537713008120663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14319860678305124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.149851912777205</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13905911518367065</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13670748236275385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13843741915055469</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13897416293069828</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-F296-4413-BC33-3F646A9F844B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Crimes by Day of Week</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]Sheet4!$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Sheet4!$D$27:$D$33</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Monday </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tuesday </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wednesday </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Thursday </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Friday </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Saturday </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sunday </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Sheet4!$E$27:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>37084</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35851</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35990</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39822</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38807</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B0EF-4841-B83C-BE96F790C087}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="577751904"/>
+        <c:axId val="596666080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="577751904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="596666080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="596666080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577751904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Crimes by Month</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]Sheet4!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Sheet4!$A$38:$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sept</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Sheet4!$B$38:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>19820</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19787</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21491</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22629</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24424</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23555</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22969</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21406</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20319</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-249B-41BB-A027-5C88B2BE0F5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="579919792"/>
+        <c:axId val="579918480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="579919792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579918480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="579918480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579919792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Crimes</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by Season</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]Sheet7!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Sheet7!$G$2:$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Winter</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Spring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Summer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Fall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[2]Sheet7!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>55061</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72071</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A23E-400F-B253-4A1B864208C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="564489456"/>
+        <c:axId val="564488800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="564489456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564488800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="564488800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564489456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3026,6 +5447,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3529,7 +6070,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4048,8 +6589,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4072,17 +6613,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -4253,22 +6783,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4373,8 +6904,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4506,19 +7037,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4551,8 +7083,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4609,7 +7141,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -4661,11 +7193,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -4678,18 +7208,16 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4715,6 +7243,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4727,7 +7258,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -4770,23 +7301,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -4891,8 +7421,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5024,20 +7554,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5070,7 +7599,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5573,8 +8102,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5631,7 +8160,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -5682,13 +8211,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5699,19 +8221,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -5749,6 +8264,523 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -6060,6 +9092,2592 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6134,44 +11752,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2FF7CF-E7B2-4851-9060-F77069CC4284}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>16</xdr:row>
@@ -6202,7 +11782,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6210,51 +11790,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE06E6B-C4EF-4DFA-9D5A-32DCB3725458}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -6278,6 +11820,82 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ACD8618-21E8-48E0-9012-C53CE3DC807D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDED2CD0-B40C-4508-AF6D-CF706138CD64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
@@ -6286,23 +11904,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316991E0-352C-4FC3-A36E-32F85BB78209}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CBB25E-1669-4A70-B6D2-92B9F204CA6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6317,6 +11935,234 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BAD0F4A-E517-44BE-BFE3-1284E9E19D82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D94D49A-AC97-4128-9934-2427B8A2AD08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF6EAE36-FB1B-4C1E-AAD7-A40C27FA4BDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57808243-D185-4B64-BE6B-DE41385571A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FACEDF4C-D601-4C8D-92CE-F844AA1882EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC9859BE-A88C-4847-A0F6-B5C8FE7ECF7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6342,9 +12188,6 @@
           <cell r="B1" t="str">
             <v>Count</v>
           </cell>
-          <cell r="I1" t="str">
-            <v>%</v>
-          </cell>
         </row>
         <row r="2">
           <cell r="A2" t="str">
@@ -6353,12 +12196,6 @@
           <cell r="B2">
             <v>19820</v>
           </cell>
-          <cell r="H2" t="str">
-            <v>Jan</v>
-          </cell>
-          <cell r="I2">
-            <v>7.6534256996011102E-2</v>
-          </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
@@ -6367,12 +12204,6 @@
           <cell r="B3">
             <v>22969</v>
           </cell>
-          <cell r="H3" t="str">
-            <v>Oct</v>
-          </cell>
-          <cell r="I3">
-            <v>8.8694013569191682E-2</v>
-          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -6381,12 +12212,6 @@
           <cell r="B4">
             <v>21406</v>
           </cell>
-          <cell r="H4" t="str">
-            <v>Nov</v>
-          </cell>
-          <cell r="I4">
-            <v>8.2658542142109673E-2</v>
-          </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
@@ -6395,12 +12220,6 @@
           <cell r="B5">
             <v>20319</v>
           </cell>
-          <cell r="H5" t="str">
-            <v>Dec</v>
-          </cell>
-          <cell r="I5">
-            <v>7.8461128552066078E-2</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
@@ -6409,12 +12228,6 @@
           <cell r="B6">
             <v>14922</v>
           </cell>
-          <cell r="H6" t="str">
-            <v>Feb</v>
-          </cell>
-          <cell r="I6">
-            <v>5.7620796311527632E-2</v>
-          </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
@@ -6423,12 +12236,6 @@
           <cell r="B7">
             <v>19787</v>
           </cell>
-          <cell r="H7" t="str">
-            <v>Mar</v>
-          </cell>
-          <cell r="I7">
-            <v>7.6406828616552555E-2</v>
-          </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
@@ -6437,12 +12244,6 @@
           <cell r="B8">
             <v>21491</v>
           </cell>
-          <cell r="H8" t="str">
-            <v>April</v>
-          </cell>
-          <cell r="I8">
-            <v>8.2986766755866526E-2</v>
-          </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
@@ -6451,12 +12252,6 @@
           <cell r="B9">
             <v>22629</v>
           </cell>
-          <cell r="H9" t="str">
-            <v>May</v>
-          </cell>
-          <cell r="I9">
-            <v>8.7381115114164243E-2</v>
-          </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
@@ -6465,12 +12260,6 @@
           <cell r="B10">
             <v>23146</v>
           </cell>
-          <cell r="H10" t="str">
-            <v>June</v>
-          </cell>
-          <cell r="I10">
-            <v>8.9377493059014781E-2</v>
-          </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
@@ -6479,12 +12268,6 @@
           <cell r="B11">
             <v>24501</v>
           </cell>
-          <cell r="H11" t="str">
-            <v>July</v>
-          </cell>
-          <cell r="I11">
-            <v>9.4609779548903539E-2</v>
-          </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
@@ -6493,12 +12276,6 @@
           <cell r="B12">
             <v>24424</v>
           </cell>
-          <cell r="H12" t="str">
-            <v>Aug</v>
-          </cell>
-          <cell r="I12">
-            <v>9.4312446663500263E-2</v>
-          </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
@@ -6507,12 +12284,6 @@
           <cell r="B13">
             <v>23555</v>
           </cell>
-          <cell r="H13" t="str">
-            <v>Sept</v>
-          </cell>
-          <cell r="I13">
-            <v>9.0956832671091906E-2</v>
-          </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
@@ -6526,9 +12297,6 @@
           <cell r="B17">
             <v>39822</v>
           </cell>
-          <cell r="G17" t="str">
-            <v>%</v>
-          </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
@@ -6537,12 +12305,6 @@
           <cell r="B18">
             <v>37084</v>
           </cell>
-          <cell r="F18" t="str">
-            <v xml:space="preserve">Friday </v>
-          </cell>
-          <cell r="G18">
-            <v>0.1537713008120663</v>
-          </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
@@ -6551,12 +12313,6 @@
           <cell r="B19">
             <v>38807</v>
           </cell>
-          <cell r="F19" t="str">
-            <v xml:space="preserve">Monday </v>
-          </cell>
-          <cell r="G19">
-            <v>0.14319860678305124</v>
-          </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
@@ -6565,12 +12321,6 @@
           <cell r="B20">
             <v>36012</v>
           </cell>
-          <cell r="F20" t="str">
-            <v xml:space="preserve">Saturday </v>
-          </cell>
-          <cell r="G20">
-            <v>0.149851912777205</v>
-          </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
@@ -6579,12 +12329,6 @@
           <cell r="B21">
             <v>35403</v>
           </cell>
-          <cell r="F21" t="str">
-            <v xml:space="preserve">Sunday </v>
-          </cell>
-          <cell r="G21">
-            <v>0.13905911518367065</v>
-          </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
@@ -6593,12 +12337,6 @@
           <cell r="B22">
             <v>35851</v>
           </cell>
-          <cell r="F22" t="str">
-            <v xml:space="preserve">Thursday </v>
-          </cell>
-          <cell r="G22">
-            <v>0.13670748236275385</v>
-          </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
@@ -6606,20 +12344,6 @@
           </cell>
           <cell r="B23">
             <v>35990</v>
-          </cell>
-          <cell r="F23" t="str">
-            <v xml:space="preserve">Tuesday </v>
-          </cell>
-          <cell r="G23">
-            <v>0.13843741915055469</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24" t="str">
-            <v xml:space="preserve">Wednesday </v>
-          </cell>
-          <cell r="G24">
-            <v>0.13897416293069828</v>
           </cell>
         </row>
       </sheetData>
@@ -6661,6 +12385,388 @@
             <v>67930</v>
           </cell>
         </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet6"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Sheet7"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="I1" t="str">
+            <v>%</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="H2" t="str">
+            <v>Jan</v>
+          </cell>
+          <cell r="I2">
+            <v>7.6534256996011102E-2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="H3" t="str">
+            <v>Oct</v>
+          </cell>
+          <cell r="I3">
+            <v>8.8694013569191682E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="H4" t="str">
+            <v>Nov</v>
+          </cell>
+          <cell r="I4">
+            <v>8.2658542142109673E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="H5" t="str">
+            <v>Dec</v>
+          </cell>
+          <cell r="I5">
+            <v>7.8461128552066078E-2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="H6" t="str">
+            <v>Feb</v>
+          </cell>
+          <cell r="I6">
+            <v>5.7620796311527632E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="H7" t="str">
+            <v>Mar</v>
+          </cell>
+          <cell r="I7">
+            <v>7.6406828616552555E-2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="H8" t="str">
+            <v>April</v>
+          </cell>
+          <cell r="I8">
+            <v>8.2986766755866526E-2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="H9" t="str">
+            <v>May</v>
+          </cell>
+          <cell r="I9">
+            <v>8.7381115114164243E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="H10" t="str">
+            <v>June</v>
+          </cell>
+          <cell r="I10">
+            <v>8.9377493059014781E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="H11" t="str">
+            <v>July</v>
+          </cell>
+          <cell r="I11">
+            <v>9.4609779548903539E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="H12" t="str">
+            <v>Aug</v>
+          </cell>
+          <cell r="I12">
+            <v>9.4312446663500263E-2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="H13" t="str">
+            <v>Sept</v>
+          </cell>
+          <cell r="I13">
+            <v>9.0956832671091906E-2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="G17" t="str">
+            <v>%</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="F18" t="str">
+            <v xml:space="preserve">Friday </v>
+          </cell>
+          <cell r="G18">
+            <v>0.1537713008120663</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="F19" t="str">
+            <v xml:space="preserve">Monday </v>
+          </cell>
+          <cell r="G19">
+            <v>0.14319860678305124</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="F20" t="str">
+            <v xml:space="preserve">Saturday </v>
+          </cell>
+          <cell r="G20">
+            <v>0.149851912777205</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="F21" t="str">
+            <v xml:space="preserve">Sunday </v>
+          </cell>
+          <cell r="G21">
+            <v>0.13905911518367065</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="F22" t="str">
+            <v xml:space="preserve">Thursday </v>
+          </cell>
+          <cell r="G22">
+            <v>0.13670748236275385</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="F23" t="str">
+            <v xml:space="preserve">Tuesday </v>
+          </cell>
+          <cell r="G23">
+            <v>0.13843741915055469</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="F24" t="str">
+            <v xml:space="preserve">Wednesday </v>
+          </cell>
+          <cell r="G24">
+            <v>0.13897416293069828</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26" t="str">
+            <v>Count</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="D27" t="str">
+            <v xml:space="preserve">Monday </v>
+          </cell>
+          <cell r="E27">
+            <v>37084</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28" t="str">
+            <v xml:space="preserve">Tuesday </v>
+          </cell>
+          <cell r="E28">
+            <v>35851</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="D29" t="str">
+            <v xml:space="preserve">Wednesday </v>
+          </cell>
+          <cell r="E29">
+            <v>35990</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30" t="str">
+            <v xml:space="preserve">Thursday </v>
+          </cell>
+          <cell r="E30">
+            <v>35403</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="D31" t="str">
+            <v xml:space="preserve">Friday </v>
+          </cell>
+          <cell r="E31">
+            <v>39822</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="D32" t="str">
+            <v xml:space="preserve">Saturday </v>
+          </cell>
+          <cell r="E32">
+            <v>38807</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="D33" t="str">
+            <v xml:space="preserve">Sunday </v>
+          </cell>
+          <cell r="E33">
+            <v>36012</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>Count</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Jan</v>
+          </cell>
+          <cell r="B38">
+            <v>19820</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Feb</v>
+          </cell>
+          <cell r="B39">
+            <v>14922</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Mar</v>
+          </cell>
+          <cell r="B40">
+            <v>19787</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>April</v>
+          </cell>
+          <cell r="B41">
+            <v>21491</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>May</v>
+          </cell>
+          <cell r="B42">
+            <v>22629</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>June</v>
+          </cell>
+          <cell r="B43">
+            <v>23146</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>July</v>
+          </cell>
+          <cell r="B44">
+            <v>24501</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>Aug</v>
+          </cell>
+          <cell r="B45">
+            <v>24424</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>Sept</v>
+          </cell>
+          <cell r="B46">
+            <v>23555</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>Oct</v>
+          </cell>
+          <cell r="B47">
+            <v>22969</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>Nov</v>
+          </cell>
+          <cell r="B48">
+            <v>21406</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>Dec</v>
+          </cell>
+          <cell r="B49">
+            <v>20319</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="H1" t="str">
+            <v>Count</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="G2" t="str">
+            <v>Winter</v>
+          </cell>
+          <cell r="H2">
+            <v>55061</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="G3" t="str">
+            <v>Spring</v>
+          </cell>
+          <cell r="H3">
+            <v>63907</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4" t="str">
+            <v>Summer</v>
+          </cell>
+          <cell r="H4">
+            <v>72071</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5" t="str">
+            <v>Fall</v>
+          </cell>
+          <cell r="H5">
+            <v>67930</v>
+          </cell>
+        </row>
         <row r="16">
           <cell r="C16" t="str">
             <v>%</v>
@@ -6696,6 +12802,131 @@
           </cell>
           <cell r="C20">
             <v>0.26230938838239326</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Sheet5"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Count</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v xml:space="preserve">First Quarter </v>
+          </cell>
+          <cell r="B2">
+            <v>64422</v>
+          </cell>
+          <cell r="P2" t="str">
+            <v>Count</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v xml:space="preserve">Full Moon </v>
+          </cell>
+          <cell r="B3">
+            <v>64534</v>
+          </cell>
+          <cell r="O3" t="str">
+            <v xml:space="preserve">First Quarter </v>
+          </cell>
+          <cell r="P3">
+            <v>64422</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v xml:space="preserve">Last Quarter </v>
+          </cell>
+          <cell r="B4">
+            <v>63800</v>
+          </cell>
+          <cell r="O4" t="str">
+            <v xml:space="preserve">New Moon </v>
+          </cell>
+          <cell r="P4">
+            <v>65289</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v xml:space="preserve">New Moon </v>
+          </cell>
+          <cell r="B5">
+            <v>65289</v>
+          </cell>
+          <cell r="O5" t="str">
+            <v xml:space="preserve">Full Moon </v>
+          </cell>
+          <cell r="P5">
+            <v>64534</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="O6" t="str">
+            <v xml:space="preserve">Last Quarter </v>
+          </cell>
+          <cell r="P6">
+            <v>63800</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>%</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v xml:space="preserve">First Quarter </v>
+          </cell>
+          <cell r="B8">
+            <v>0.24965413009358833</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v xml:space="preserve">Full Moon </v>
+          </cell>
+          <cell r="B9">
+            <v>0.25008816291732061</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v xml:space="preserve">Last Quarter </v>
+          </cell>
+          <cell r="B10">
+            <v>0.24724369780464647</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v xml:space="preserve">New Moon </v>
+          </cell>
+          <cell r="B11">
+            <v>0.25301400918444455</v>
           </cell>
         </row>
       </sheetData>
@@ -7003,8 +13234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A741AFA-65C7-47ED-807E-17D5FD606870}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neal\Desktop\GroupC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B77B461-86E4-4389-B747-FBAC3DA70E82}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68043E7E-205E-4F74-B74E-5E66703FEA9E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9B31D286-B249-4856-AC8C-42ACBBB5A474}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="179021"/>
   <extLst>
@@ -1533,6 +1534,377 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Crimes by Time of Day </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[4]Sheet7!$K$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6011-459C-A56E-3A244A593B03}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6011-459C-A56E-3A244A593B03}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[4]Sheet7!$J$9:$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Day (6AM-6PM)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Night (6PM-6AM)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[4]Sheet7!$K$9:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.34488170667906759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65511829332093241</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6011-459C-A56E-3A244A593B03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5247,6 +5619,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7567,6 +7979,525 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -12168,6 +13099,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B8E3005-5BA4-42B5-8A8D-C57103E94458}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12930,6 +13899,55 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Sheet5"/>
+      <sheetName val="Sheet7"/>
+      <sheetName val="Sheet8"/>
+      <sheetName val="Sheet9"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="8">
+          <cell r="K8" t="str">
+            <v>%</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="J9" t="str">
+            <v>Day (6AM-6PM)</v>
+          </cell>
+          <cell r="K9">
+            <v>0.34488170667906759</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="J10" t="str">
+            <v>Night (6PM-6AM)</v>
+          </cell>
+          <cell r="K10">
+            <v>0.65511829332093241</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -13234,8 +14252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A741AFA-65C7-47ED-807E-17D5FD606870}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="R84" sqref="R84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/charts.xlsx
+++ b/charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neal\Desktop\GroupC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68043E7E-205E-4F74-B74E-5E66703FEA9E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11866AE5-66E1-4476-84B5-6F87728D9298}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9B31D286-B249-4856-AC8C-42ACBBB5A474}"/>
   </bookViews>
@@ -1796,10 +1796,10 @@
             </c:txPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -14252,8 +14252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A741AFA-65C7-47ED-807E-17D5FD606870}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="R84" sqref="R84"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
